--- a/data/OpenSource/potential_open_source_projects_2018_11_18.xlsx
+++ b/data/OpenSource/potential_open_source_projects_2018_11_18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\USC\CSCI590\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\USC\CSCI590\UMLx\UMLx\data\OpenSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D63D6F24-0D39-415D-A79E-BAC970A7FEED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5F1BA423-90B4-462F-AEAE-CEC473E8F2D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17765" windowHeight="6070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="806">
   <si>
     <t>Repo:</t>
   </si>
@@ -3787,6 +3787,282 @@
   </si>
   <si>
     <t>https://issues.apache.org/jira/projects/MRUNIT/issues/MRUNIT-157?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MUSE/issues/MUSE-233?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/EXTCDI/issues/EXTCDI-274?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>240h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MFCOMMONS/issues/MFCOMMONS-31?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MYFACES/issues/MYFACES-4250?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>1522.1h</t>
+  </si>
+  <si>
+    <t>1521.35h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/EXTSCRIPT/issues/EXTSCRIPT-190?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/EXTVAL/issues/EXTVAL-162?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>24.5h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MFHTML5/issues/MFHTML5-20?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>504h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/ORCHESTRA/issues/ORCHESTRA-55?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PORTLETBRIDGE/issues/PORTLETBRIDGE-188?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MYFACESTEST/issues/MYFACESTEST-42?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/TOBAGO/issues/TOBAGO-1943?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/TOMAHAWK/issues/TOMAHAWK-1685?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>1606h37m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/TRINIDAD/issues/TRINIDAD-2559?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>3907h37m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MYNEWT/issues/MYNEWT-838?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MYNEWTDOC/issues/MYNEWTDOC-12?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MYRIAD/issues/MYRIAD-86?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/NEETHI/issues/?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/NETBEANS/issues/NETBEANS-1438?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>282h40m</t>
+  </si>
+  <si>
+    <t>146h</t>
+  </si>
+  <si>
+    <t>428h40m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/MINIFICPP/issues/MINIFICPP-653?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/NIFIREG/issues/NIFIREG-204?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/NPANDAY/issues/NPANDAY-543?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/NUTCH/issues/NUTCH-2667?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/NUVEM/issues/NUVEM-14?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>2452h20m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/ODE/issues/ODE-941?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>314h50m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/JACOB/issues/JACOB-6?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OWC/issues/?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/ODFTOOLKIT/issues/ODFTOOLKIT-451?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OFBIZ/issues/OFBIZ-10573?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OJB/issues/OJB-142?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>192h</t>
+  </si>
+  <si>
+    <t>102088h41m</t>
+  </si>
+  <si>
+    <t>102354h41m</t>
+  </si>
+  <si>
+    <t>266h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OLINGO/issues/OLINGO-1307?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OLIO/issues/OLIO-155?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OODT/issues/OODT-994?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>1900h10m</t>
+  </si>
+  <si>
+    <t>291h34m</t>
+  </si>
+  <si>
+    <t>629.9h</t>
+  </si>
+  <si>
+    <t>338h20m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OOZIE/issues/OOZIE-3363?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>117h</t>
+  </si>
+  <si>
+    <t>2916.15h</t>
+  </si>
+  <si>
+    <t>2845.15h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/ORP/issues/ORP-6?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OPENEJB/issues/OPENEJB-2122?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>3941h20m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OEP/issues/OEP-23?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OPENJPA/issues/OPENJPA-169?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OPENMEETINGS/issues/OPENMEETINGS-1889?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>4917h25m</t>
+  </si>
+  <si>
+    <t>5537.9h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OPENNLP/issues/OPENNLP-1163?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/OWB/issues/OWB-1258?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>4781h17m</t>
+  </si>
+  <si>
+    <t>4781.45h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/ORC/issues/ORC-370?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>336h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PARQUET/issues/PARQUET-632?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>1.5h</t>
+  </si>
+  <si>
+    <t>506h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PDFBOX/issues/PDFBOX-45?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>8232h35m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PHOENIX/issues/PHOENIX-300?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PHOTARK/issues/PHOTARK-42?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>16104.55h</t>
+  </si>
+  <si>
+    <t>96h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PIG/issues/PIG-5367?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PIRK/issues/PIRK-78?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>1404.5h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PIVOT/issues/PIVOT-1043?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>336.5h</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PLUTO/issues/PLUTO-732?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>1397h1m</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PODLINGNAMESEARCH/issues/PODLINGNAMESEARCH-151?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/POLYGENE/issues/POLYGENE-311?filter=allopenissues</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/projects/PORTALS/issues/PORTALS-25?filter=allopenissues</t>
   </si>
 </sst>
 </file>
@@ -3886,7 +4162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3909,6 +4185,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6338,8 +6615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153:H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6360,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3"/>
@@ -8919,7 +9196,9 @@
       <c r="A101" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>714</v>
+      </c>
       <c r="C101" s="2" t="s">
         <v>190</v>
       </c>
@@ -8929,7 +9208,15 @@
       <c r="E101" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A102" s="2" t="s">
@@ -8951,7 +9238,9 @@
       <c r="A103" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>715</v>
+      </c>
       <c r="C103" s="2" t="s">
         <v>403</v>
       </c>
@@ -8961,13 +9250,23 @@
       <c r="E103" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A104" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="C104" s="2" t="s">
         <v>405</v>
       </c>
@@ -8977,13 +9276,23 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A105" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>718</v>
+      </c>
       <c r="C105" s="2" t="s">
         <v>405</v>
       </c>
@@ -8993,13 +9302,23 @@
       <c r="E105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>721</v>
+      </c>
       <c r="C106" s="2" t="s">
         <v>408</v>
       </c>
@@ -9009,13 +9328,23 @@
       <c r="E106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="3"/>
+      <c r="F106" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A107" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>722</v>
+      </c>
       <c r="C107" s="2" t="s">
         <v>410</v>
       </c>
@@ -9025,13 +9354,23 @@
       <c r="E107" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A108" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>724</v>
+      </c>
       <c r="C108" s="2" t="s">
         <v>412</v>
       </c>
@@ -9041,13 +9380,23 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="3"/>
+      <c r="F108" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A109" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>726</v>
+      </c>
       <c r="C109" s="2" t="s">
         <v>405</v>
       </c>
@@ -9057,13 +9406,23 @@
       <c r="E109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="3"/>
+      <c r="F109" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A110" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>728</v>
+      </c>
       <c r="C110" s="2" t="s">
         <v>416</v>
       </c>
@@ -9073,13 +9432,23 @@
       <c r="E110" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A111" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>729</v>
+      </c>
       <c r="C111" s="2" t="s">
         <v>405</v>
       </c>
@@ -9089,13 +9458,23 @@
       <c r="E111" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A112" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>731</v>
+      </c>
       <c r="C112" s="2" t="s">
         <v>419</v>
       </c>
@@ -9105,13 +9484,23 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F112" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A113" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="C113" s="2" t="s">
         <v>422</v>
       </c>
@@ -9121,13 +9510,23 @@
       <c r="E113" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F113" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A114" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>735</v>
+      </c>
       <c r="C114" s="2" t="s">
         <v>424</v>
       </c>
@@ -9137,13 +9536,23 @@
       <c r="E114" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F114" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A115" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="C115" s="2" t="s">
         <v>426</v>
       </c>
@@ -9153,13 +9562,23 @@
       <c r="E115" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F115" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A116" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>738</v>
+      </c>
       <c r="C116" s="2" t="s">
         <v>429</v>
       </c>
@@ -9169,13 +9588,23 @@
       <c r="E116" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F116" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A117" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="C117" s="2" t="s">
         <v>431</v>
       </c>
@@ -9185,13 +9614,23 @@
       <c r="E117" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F117" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A118" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>740</v>
+      </c>
       <c r="C118" s="2" t="s">
         <v>434</v>
       </c>
@@ -9201,13 +9640,23 @@
       <c r="E118" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F118" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A119" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>741</v>
+      </c>
       <c r="C119" s="2" t="s">
         <v>437</v>
       </c>
@@ -9217,13 +9666,23 @@
       <c r="E119" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F119" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A120" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="C120" s="2" t="s">
         <v>440</v>
       </c>
@@ -9233,13 +9692,23 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F120" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A121" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>746</v>
+      </c>
       <c r="C121" s="2" t="s">
         <v>443</v>
       </c>
@@ -9249,13 +9718,23 @@
       <c r="E121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F121" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H121" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A122" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>747</v>
+      </c>
       <c r="C122" s="2" t="s">
         <v>446</v>
       </c>
@@ -9265,13 +9744,23 @@
       <c r="E122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F122" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A123" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>748</v>
+      </c>
       <c r="C123" s="2" t="s">
         <v>449</v>
       </c>
@@ -9281,13 +9770,23 @@
       <c r="E123" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F123" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A124" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>749</v>
+      </c>
       <c r="C124" s="2" t="s">
         <v>451</v>
       </c>
@@ -9297,13 +9796,23 @@
       <c r="E124" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F124" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A125" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>751</v>
+      </c>
       <c r="C125" s="2" t="s">
         <v>454</v>
       </c>
@@ -9313,13 +9822,23 @@
       <c r="E125" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F125" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A126" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>753</v>
+      </c>
       <c r="C126" s="2" t="s">
         <v>457</v>
       </c>
@@ -9331,11 +9850,13 @@
       </c>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>754</v>
+      </c>
       <c r="C127" s="2" t="s">
         <v>459</v>
       </c>
@@ -9345,13 +9866,23 @@
       <c r="E127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F127" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A128" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>755</v>
+      </c>
       <c r="C128" s="2" t="s">
         <v>462</v>
       </c>
@@ -9361,13 +9892,23 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F128" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A129" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>756</v>
+      </c>
       <c r="C129" s="2" t="s">
         <v>464</v>
       </c>
@@ -9377,13 +9918,23 @@
       <c r="E129" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F129" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A130" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>757</v>
+      </c>
       <c r="C130" s="2" t="s">
         <v>467</v>
       </c>
@@ -9393,13 +9944,23 @@
       <c r="E130" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F130" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A131" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>762</v>
+      </c>
       <c r="C131" s="2" t="s">
         <v>469</v>
       </c>
@@ -9409,13 +9970,23 @@
       <c r="E131" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F131" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A132" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>763</v>
+      </c>
       <c r="C132" s="2" t="s">
         <v>471</v>
       </c>
@@ -9425,13 +9996,23 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F132" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A133" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="C133" s="2" t="s">
         <v>474</v>
       </c>
@@ -9441,13 +10022,23 @@
       <c r="E133" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F133" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="H133" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A134" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>769</v>
+      </c>
       <c r="C134" s="2" t="s">
         <v>477</v>
       </c>
@@ -9457,13 +10048,23 @@
       <c r="E134" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F134" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A135" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>773</v>
+      </c>
       <c r="C135" s="2" t="s">
         <v>190</v>
       </c>
@@ -9473,13 +10074,23 @@
       <c r="E135" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F135" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A136" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="C136" s="2" t="s">
         <v>481</v>
       </c>
@@ -9489,13 +10100,23 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F136" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A137" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>776</v>
+      </c>
       <c r="C137" s="2" t="s">
         <v>481</v>
       </c>
@@ -9505,13 +10126,23 @@
       <c r="E137" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F137" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A138" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B138" s="2"/>
+      <c r="B138" s="2" t="s">
+        <v>777</v>
+      </c>
       <c r="C138" s="2" t="s">
         <v>484</v>
       </c>
@@ -9521,13 +10152,23 @@
       <c r="E138" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F138" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A139" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B139" s="2"/>
+      <c r="B139" s="2" t="s">
+        <v>778</v>
+      </c>
       <c r="C139" s="2" t="s">
         <v>486</v>
       </c>
@@ -9537,13 +10178,23 @@
       <c r="E139" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F139" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="H139" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A140" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B140" s="2"/>
+      <c r="B140" s="2" t="s">
+        <v>781</v>
+      </c>
       <c r="C140" s="2" t="s">
         <v>488</v>
       </c>
@@ -9553,13 +10204,23 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F140" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="H140" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A141" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="C141" s="2" t="s">
         <v>490</v>
       </c>
@@ -9569,13 +10230,23 @@
       <c r="E141" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F141" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A142" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>785</v>
+      </c>
       <c r="C142" s="2" t="s">
         <v>492</v>
       </c>
@@ -9585,13 +10256,23 @@
       <c r="E142" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F142" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H142" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A143" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="C143" s="2" t="s">
         <v>495</v>
       </c>
@@ -9601,13 +10282,23 @@
       <c r="E143" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F143" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A144" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B144" s="2"/>
+      <c r="B144" s="2" t="s">
+        <v>790</v>
+      </c>
       <c r="C144" s="2" t="s">
         <v>497</v>
       </c>
@@ -9617,13 +10308,23 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F144" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A145" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>792</v>
+      </c>
       <c r="C145" s="2" t="s">
         <v>499</v>
       </c>
@@ -9633,13 +10334,23 @@
       <c r="E145" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F145" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A146" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>793</v>
+      </c>
       <c r="C146" s="2" t="s">
         <v>501</v>
       </c>
@@ -9649,13 +10360,23 @@
       <c r="E146" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F146" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A147" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B147" s="2"/>
+      <c r="B147" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="C147" s="2" t="s">
         <v>504</v>
       </c>
@@ -9665,13 +10386,23 @@
       <c r="E147" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F147" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A148" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B148" s="2"/>
+      <c r="B148" s="2" t="s">
+        <v>797</v>
+      </c>
       <c r="C148" s="2" t="s">
         <v>507</v>
       </c>
@@ -9681,13 +10412,23 @@
       <c r="E148" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F148" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A149" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>799</v>
+      </c>
       <c r="C149" s="2" t="s">
         <v>510</v>
       </c>
@@ -9697,13 +10438,23 @@
       <c r="E149" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F149" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A150" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B150" s="2"/>
+      <c r="B150" s="2" t="s">
+        <v>801</v>
+      </c>
       <c r="C150" s="2" t="s">
         <v>512</v>
       </c>
@@ -9713,13 +10464,23 @@
       <c r="E150" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F150" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A151" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>803</v>
+      </c>
       <c r="C151" s="2" t="s">
         <v>109</v>
       </c>
@@ -9731,11 +10492,13 @@
       </c>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A152" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B152" s="2"/>
+      <c r="B152" s="2" t="s">
+        <v>804</v>
+      </c>
       <c r="C152" s="2" t="s">
         <v>515</v>
       </c>
@@ -9745,13 +10508,23 @@
       <c r="E152" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F152" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A153" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="C153" s="2" t="s">
         <v>517</v>
       </c>
@@ -9761,9 +10534,17 @@
       <c r="E153" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F153" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -9771,7 +10552,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -9779,7 +10560,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -9787,7 +10568,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -9795,7 +10576,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -9803,7 +10584,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -9811,7 +10592,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -10011,8 +10792,9 @@
     <hyperlink ref="C150" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
     <hyperlink ref="C152" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
     <hyperlink ref="C153" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="C1" r:id="rId143" xr:uid="{FF1E277A-CC9E-4358-8843-8EBA0E979E0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId143"/>
+  <pageSetup orientation="portrait" r:id="rId144"/>
 </worksheet>
 </file>